--- a/homework18 excel/Students.XLSX
+++ b/homework18 excel/Students.XLSX
@@ -33,12 +33,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Edik</t>
-  </si>
-  <si>
-    <t>Mammedov</t>
-  </si>
-  <si>
     <t>Elman</t>
   </si>
   <si>
@@ -64,6 +58,12 @@
   </si>
   <si>
     <t>Eliyev</t>
+  </si>
+  <si>
+    <t>Musa</t>
+  </si>
+  <si>
+    <t>Poladli</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -412,12 +412,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="0">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
@@ -426,12 +426,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="0">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
@@ -445,35 +445,35 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>13</v>
@@ -482,7 +482,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/homework18 excel/Students.XLSX
+++ b/homework18 excel/Students.XLSX
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>Maqa</t>
-  </si>
-  <si>
-    <t>Mahmud</t>
-  </si>
-  <si>
-    <t>Eliyev</t>
   </si>
   <si>
     <t>Musa</t>
@@ -379,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -459,7 +453,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>11</v>
@@ -468,20 +462,6 @@
         <v>12</v>
       </c>
       <c r="D6" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="0">
         <v>11</v>
       </c>
     </row>
